--- a/07-Reporting/sesiones.xlsx
+++ b/07-Reporting/sesiones.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t xml:space="preserve">yearMonth</t>
   </si>
@@ -135,6 +135,21 @@
   </si>
   <si>
     <t xml:space="preserve">201703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">201704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">201705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">201706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">201707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">201708</t>
   </si>
 </sst>
 </file>
@@ -182,8 +197,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:B40" totalsRowShown="0">
-  <autoFilter ref="A1:B40"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:B45" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="A1:B45"/>
   <tableColumns count="2">
     <tableColumn id="1" name="yearMonth"/>
     <tableColumn id="2" name="sessions"/>
@@ -471,16 +486,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B40"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="125" showGridLines="1" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="35.71" customWidth="1"/>
-    <col min="2" max="2" width="10.71" customWidth="1"/>
-    <col min="3" max="3" width="10.71" customWidth="1"/>
-    <col min="4" max="4" width="35.71" customWidth="1"/>
+    <col min="1" max="1" width="35.71" hidden="0" customWidth="1"/>
+    <col min="2" max="2" width="10.71" hidden="0" customWidth="1"/>
+    <col min="3" max="3" width="10.71" hidden="0" customWidth="1"/>
+    <col min="4" max="4" width="35.71" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -680,7 +695,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="n">
-        <v>4016</v>
+        <v>4015</v>
       </c>
     </row>
     <row r="26">
@@ -801,6 +816,46 @@
       </c>
       <c r="B40" t="n">
         <v>8256</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41" t="n">
+        <v>6522</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42" t="n">
+        <v>7777</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43" t="n">
+        <v>8090</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44" t="n">
+        <v>7522</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45" t="n">
+        <v>6377</v>
       </c>
     </row>
   </sheetData>

--- a/07-Reporting/sesiones.xlsx
+++ b/07-Reporting/sesiones.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t xml:space="preserve">yearMonth</t>
   </si>
@@ -20,136 +20,82 @@
     <t xml:space="preserve">sessions</t>
   </si>
   <si>
-    <t xml:space="preserve">201401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">201402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">201403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">201404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">201405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">201406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">201407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">201408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">201409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">201410</t>
-  </si>
-  <si>
-    <t xml:space="preserve">201411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">201412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">201501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">201502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">201503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">201504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">201505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">201506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">201507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">201508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">201509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">201510</t>
-  </si>
-  <si>
-    <t xml:space="preserve">201511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">201512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">201601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">201602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">201603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">201604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">201605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">201606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">201607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">201608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">201609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">201610</t>
-  </si>
-  <si>
-    <t xml:space="preserve">201611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">201612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">201701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">201702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">201703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">201704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">201705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">201706</t>
-  </si>
-  <si>
     <t xml:space="preserve">201707</t>
   </si>
   <si>
     <t xml:space="preserve">201708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">201709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">201710</t>
+  </si>
+  <si>
+    <t xml:space="preserve">201711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">201712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">201801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">201802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">201803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">201804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">201805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">201806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">201807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">201808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">201809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">201810</t>
+  </si>
+  <si>
+    <t xml:space="preserve">201811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">201812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">201901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">201902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">201903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">201904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">201905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">201906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">201907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">201908</t>
   </si>
 </sst>
 </file>
@@ -197,8 +143,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:B45" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A1:B45"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:B27" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="A1:B27"/>
   <tableColumns count="2">
     <tableColumn id="1" name="yearMonth"/>
     <tableColumn id="2" name="sessions"/>
@@ -511,7 +457,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>6477</v>
+        <v>2852</v>
       </c>
     </row>
     <row r="3">
@@ -519,7 +465,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>7241</v>
+        <v>6377</v>
       </c>
     </row>
     <row r="4">
@@ -527,7 +473,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>7346</v>
+        <v>9209</v>
       </c>
     </row>
     <row r="5">
@@ -535,7 +481,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>5012</v>
+        <v>8468</v>
       </c>
     </row>
     <row r="6">
@@ -543,7 +489,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="n">
-        <v>5185</v>
+        <v>8172</v>
       </c>
     </row>
     <row r="7">
@@ -551,7 +497,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="n">
-        <v>3577</v>
+        <v>6830</v>
       </c>
     </row>
     <row r="8">
@@ -559,7 +505,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="n">
-        <v>4943</v>
+        <v>10235</v>
       </c>
     </row>
     <row r="9">
@@ -567,7 +513,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="n">
-        <v>3579</v>
+        <v>10349</v>
       </c>
     </row>
     <row r="10">
@@ -575,7 +521,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="n">
-        <v>6866</v>
+        <v>10425</v>
       </c>
     </row>
     <row r="11">
@@ -583,7 +529,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="n">
-        <v>6664</v>
+        <v>10661</v>
       </c>
     </row>
     <row r="12">
@@ -591,7 +537,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="n">
-        <v>5799</v>
+        <v>9933</v>
       </c>
     </row>
     <row r="13">
@@ -599,7 +545,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="n">
-        <v>4427</v>
+        <v>9752</v>
       </c>
     </row>
     <row r="14">
@@ -607,7 +553,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="n">
-        <v>6882</v>
+        <v>9773</v>
       </c>
     </row>
     <row r="15">
@@ -615,7 +561,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="n">
-        <v>7606</v>
+        <v>7531</v>
       </c>
     </row>
     <row r="16">
@@ -623,7 +569,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="n">
-        <v>7842</v>
+        <v>10817</v>
       </c>
     </row>
     <row r="17">
@@ -631,7 +577,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="n">
-        <v>6776</v>
+        <v>11789</v>
       </c>
     </row>
     <row r="18">
@@ -639,7 +585,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="n">
-        <v>6105</v>
+        <v>10681</v>
       </c>
     </row>
     <row r="19">
@@ -647,7 +593,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="n">
-        <v>5426</v>
+        <v>7231</v>
       </c>
     </row>
     <row r="20">
@@ -655,7 +601,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="n">
-        <v>5728</v>
+        <v>11940</v>
       </c>
     </row>
     <row r="21">
@@ -663,7 +609,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="n">
-        <v>5013</v>
+        <v>12035</v>
       </c>
     </row>
     <row r="22">
@@ -671,7 +617,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="n">
-        <v>7579</v>
+        <v>11374</v>
       </c>
     </row>
     <row r="23">
@@ -679,7 +625,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="n">
-        <v>8142</v>
+        <v>9344</v>
       </c>
     </row>
     <row r="24">
@@ -687,7 +633,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="n">
-        <v>6178</v>
+        <v>9718</v>
       </c>
     </row>
     <row r="25">
@@ -695,7 +641,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="n">
-        <v>4015</v>
+        <v>8598</v>
       </c>
     </row>
     <row r="26">
@@ -703,7 +649,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="n">
-        <v>5512</v>
+        <v>9591</v>
       </c>
     </row>
     <row r="27">
@@ -711,151 +657,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="n">
-        <v>7260</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" t="n">
-        <v>7051</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" t="n">
-        <v>5526</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" t="n">
-        <v>5590</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" t="n">
-        <v>6022</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32" t="n">
-        <v>5415</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33" t="n">
-        <v>5131</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s">
-        <v>34</v>
-      </c>
-      <c r="B34" t="n">
-        <v>8185</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s">
-        <v>35</v>
-      </c>
-      <c r="B35" t="n">
-        <v>7006</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36" t="n">
-        <v>6192</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s">
-        <v>37</v>
-      </c>
-      <c r="B37" t="n">
-        <v>3981</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s">
-        <v>38</v>
-      </c>
-      <c r="B38" t="n">
-        <v>6582</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s">
-        <v>39</v>
-      </c>
-      <c r="B39" t="n">
-        <v>7068</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s">
-        <v>40</v>
-      </c>
-      <c r="B40" t="n">
-        <v>8256</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s">
-        <v>41</v>
-      </c>
-      <c r="B41" t="n">
-        <v>6522</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="s">
-        <v>42</v>
-      </c>
-      <c r="B42" t="n">
-        <v>7777</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s">
-        <v>43</v>
-      </c>
-      <c r="B43" t="n">
-        <v>8090</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s">
-        <v>44</v>
-      </c>
-      <c r="B44" t="n">
-        <v>7522</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="s">
-        <v>45</v>
-      </c>
-      <c r="B45" t="n">
-        <v>6377</v>
+        <v>6538</v>
       </c>
     </row>
   </sheetData>
